--- a/Texts/Особые Эпизоды/2 Одарённый Иглибафф/Сюжет.xlsx
+++ b/Texts/Особые Эпизоды/2 Одарённый Иглибафф/Сюжет.xlsx
@@ -7017,9 +7017,6 @@
     <t xml:space="preserve"> Èäåòû óàë óåíîï, ÿ îéœåãï îå\nâéçô. ♪</t>
   </si>
   <si>
-    <t xml:space="preserve"> Ïòóñïçîåå!</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Îà üóïó ñàè îå ôðàäé ïðÿóû â ÿ-</t>
   </si>
   <si>
@@ -8320,6 +8317,9 @@
   </si>
   <si>
     <t>[CN]Â äåêòóâéóåìûîïòóé îéãäå îå áúâàåó.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïòóïñïçîåå!</t>
   </si>
 </sst>
 </file>
@@ -8977,8 +8977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H988"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A972" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D981" sqref="D981"/>
+    <sheetView tabSelected="1" topLeftCell="A820" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E825" sqref="E825"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21834,7 +21834,7 @@
         <v>2319</v>
       </c>
       <c r="F828" s="14" t="s">
-        <v>2332</v>
+        <v>2766</v>
       </c>
     </row>
     <row r="829" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -21849,7 +21849,7 @@
         <v>2320</v>
       </c>
       <c r="F829" s="14" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="830" spans="1:6" x14ac:dyDescent="0.3">
@@ -21864,7 +21864,7 @@
         <v>2321</v>
       </c>
       <c r="F830" s="14" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="831" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -21879,7 +21879,7 @@
         <v>2322</v>
       </c>
       <c r="F831" s="14" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="832" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -21956,7 +21956,7 @@
         <v>2323</v>
       </c>
       <c r="F836" s="14" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="837" spans="1:6" x14ac:dyDescent="0.3">
@@ -21971,7 +21971,7 @@
         <v>2324</v>
       </c>
       <c r="F837" s="14" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="838" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -21986,7 +21986,7 @@
         <v>2325</v>
       </c>
       <c r="F838" s="14" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="839" spans="1:6" x14ac:dyDescent="0.3">
@@ -22003,7 +22003,7 @@
         <v>2326</v>
       </c>
       <c r="F839" s="14" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="840" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -22018,7 +22018,7 @@
         <v>2327</v>
       </c>
       <c r="F840" s="14" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="841" spans="1:6" x14ac:dyDescent="0.3">
@@ -22033,7 +22033,7 @@
         <v>2328</v>
       </c>
       <c r="F841" s="14" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="842" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -22051,15 +22051,15 @@
         <v>2329</v>
       </c>
       <c r="F842" s="36" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="843" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A843" s="18" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="B843" s="19" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="C843" s="19"/>
       <c r="D843" s="20"/>
@@ -22074,13 +22074,13 @@
         <v>18</v>
       </c>
       <c r="D844" s="14" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="E844" s="14" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="F844" s="14" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="845" spans="1:6" x14ac:dyDescent="0.3">
@@ -22089,13 +22089,13 @@
         <v>36</v>
       </c>
       <c r="D845" s="14" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="E845" s="14" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="F845" s="14" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="846" spans="1:6" x14ac:dyDescent="0.3">
@@ -22107,21 +22107,21 @@
         <v>63</v>
       </c>
       <c r="D846" s="29" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="E846" s="29" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="F846" s="29" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="847" spans="1:6" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A847" s="24" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="B847" s="25" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="C847" s="25"/>
       <c r="D847" s="26"/>
@@ -22134,13 +22134,13 @@
         <v>25</v>
       </c>
       <c r="D848" s="14" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="E848" s="14" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="F848" s="14" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="849" spans="1:6" x14ac:dyDescent="0.3">
@@ -22149,13 +22149,13 @@
         <v>42</v>
       </c>
       <c r="D849" s="14" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="E849" s="14" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
       <c r="F849" s="14" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
     </row>
     <row r="850" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -22166,13 +22166,13 @@
         <v>51</v>
       </c>
       <c r="D850" s="14" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="E850" s="14" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="F850" s="14" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="851" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -22181,13 +22181,13 @@
         <v>60</v>
       </c>
       <c r="D851" s="14" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="E851" s="14" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="F851" s="14" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
     </row>
     <row r="852" spans="1:6" x14ac:dyDescent="0.3">
@@ -22196,13 +22196,13 @@
         <v>63</v>
       </c>
       <c r="D852" s="14" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="E852" s="14" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="F852" s="14" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="853" spans="1:6" x14ac:dyDescent="0.3">
@@ -22211,13 +22211,13 @@
         <v>81</v>
       </c>
       <c r="D853" s="14" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="E853" s="14" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="F853" s="14" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="854" spans="1:6" x14ac:dyDescent="0.3">
@@ -22226,13 +22226,13 @@
         <v>94</v>
       </c>
       <c r="D854" s="14" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="E854" s="14" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="F854" s="14" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
     </row>
     <row r="855" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -22243,13 +22243,13 @@
         <v>112</v>
       </c>
       <c r="D855" s="14" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="E855" s="14" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="F855" s="14" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="856" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -22258,13 +22258,13 @@
         <v>115</v>
       </c>
       <c r="D856" s="14" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="E856" s="14" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="F856" s="14" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
     </row>
     <row r="857" spans="1:6" x14ac:dyDescent="0.3">
@@ -22273,13 +22273,13 @@
         <v>124</v>
       </c>
       <c r="D857" s="14" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="E857" s="14" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="F857" s="14" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
     </row>
     <row r="858" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -22288,13 +22288,13 @@
         <v>127</v>
       </c>
       <c r="D858" s="14" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="E858" s="14" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="F858" s="14" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
     </row>
     <row r="859" spans="1:6" x14ac:dyDescent="0.3">
@@ -22303,13 +22303,13 @@
         <v>130</v>
       </c>
       <c r="D859" s="14" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="E859" s="14" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="F859" s="14" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="860" spans="1:6" x14ac:dyDescent="0.3">
@@ -22320,13 +22320,13 @@
         <v>138</v>
       </c>
       <c r="D860" s="14" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="E860" s="14" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="F860" s="14" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="861" spans="1:6" x14ac:dyDescent="0.3">
@@ -22335,13 +22335,13 @@
         <v>159</v>
       </c>
       <c r="D861" s="14" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="E861" s="14" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="F861" s="14" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
     </row>
     <row r="862" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -22352,28 +22352,28 @@
         <v>177</v>
       </c>
       <c r="D862" s="14" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="E862" s="14" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="F862" s="14" t="s">
-        <v>2610</v>
-      </c>
-    </row>
-    <row r="863" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+        <v>2609</v>
+      </c>
+    </row>
+    <row r="863" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A863" s="16"/>
       <c r="C863" s="13">
         <v>180</v>
       </c>
       <c r="D863" s="14" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="E863" s="14" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="F863" s="14" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="864" spans="1:6" x14ac:dyDescent="0.3">
@@ -22384,13 +22384,13 @@
         <v>194</v>
       </c>
       <c r="D864" s="14" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="E864" s="14" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="F864" s="14" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
     </row>
     <row r="865" spans="1:6" x14ac:dyDescent="0.3">
@@ -22399,13 +22399,13 @@
         <v>246</v>
       </c>
       <c r="D865" s="14" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="E865" s="14" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="F865" s="14" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="866" spans="1:6" x14ac:dyDescent="0.3">
@@ -22414,13 +22414,13 @@
         <v>249</v>
       </c>
       <c r="D866" s="14" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="E866" s="14" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="F866" s="14" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="867" spans="1:6" x14ac:dyDescent="0.3">
@@ -22431,13 +22431,13 @@
         <v>258</v>
       </c>
       <c r="D867" s="14" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="E867" s="14" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="F867" s="14" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
     </row>
     <row r="868" spans="1:6" x14ac:dyDescent="0.3">
@@ -22446,13 +22446,13 @@
         <v>261</v>
       </c>
       <c r="D868" s="14" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="E868" s="14" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="F868" s="14" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="869" spans="1:6" x14ac:dyDescent="0.3">
@@ -22461,13 +22461,13 @@
         <v>275</v>
       </c>
       <c r="D869" s="14" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="E869" s="14" t="s">
+        <v>2714</v>
+      </c>
+      <c r="F869" s="14" t="s">
         <v>2715</v>
-      </c>
-      <c r="F869" s="14" t="s">
-        <v>2716</v>
       </c>
     </row>
     <row r="870" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -22476,13 +22476,13 @@
         <v>278</v>
       </c>
       <c r="D870" s="14" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="E870" s="14" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="F870" s="14" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="871" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -22493,13 +22493,13 @@
         <v>288</v>
       </c>
       <c r="D871" s="14" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="E871" s="14" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="F871" s="14" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
     </row>
     <row r="872" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -22508,13 +22508,13 @@
         <v>291</v>
       </c>
       <c r="D872" s="14" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="E872" s="14" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="F872" s="14" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="873" spans="1:6" x14ac:dyDescent="0.3">
@@ -22523,13 +22523,13 @@
         <v>294</v>
       </c>
       <c r="D873" s="14" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="E873" s="14" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="F873" s="14" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="874" spans="1:6" x14ac:dyDescent="0.3">
@@ -22538,13 +22538,13 @@
         <v>300</v>
       </c>
       <c r="D874" s="14" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="E874" s="14" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="F874" s="14" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="875" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -22555,13 +22555,13 @@
         <v>310</v>
       </c>
       <c r="D875" s="14" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="E875" s="14" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="F875" s="14" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
     </row>
     <row r="876" spans="1:6" x14ac:dyDescent="0.3">
@@ -22570,13 +22570,13 @@
         <v>320</v>
       </c>
       <c r="D876" s="14" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="E876" s="14" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="F876" s="14" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="877" spans="1:6" x14ac:dyDescent="0.3">
@@ -22590,10 +22590,10 @@
         <v>912</v>
       </c>
       <c r="E877" s="14" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="F877" s="14" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
     </row>
     <row r="878" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -22602,13 +22602,13 @@
         <v>331</v>
       </c>
       <c r="D878" s="14" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="E878" s="14" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="F878" s="14" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="879" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -22617,30 +22617,30 @@
         <v>335</v>
       </c>
       <c r="D879" s="14" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="E879" s="14" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="F879" s="14" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="880" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A880" s="16" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="C880" s="13">
         <v>348</v>
       </c>
       <c r="D880" s="14" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="E880" s="14" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
       <c r="F880" s="14" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="881" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -22649,13 +22649,13 @@
         <v>354</v>
       </c>
       <c r="D881" s="14" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="E881" s="14" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="F881" s="14" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="882" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -22664,13 +22664,13 @@
         <v>357</v>
       </c>
       <c r="D882" s="14" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="E882" s="14" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="F882" s="14" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="883" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -22679,13 +22679,13 @@
         <v>360</v>
       </c>
       <c r="D883" s="14" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="E883" s="14" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="F883" s="14" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="884" spans="1:6" x14ac:dyDescent="0.3">
@@ -22694,13 +22694,13 @@
         <v>366</v>
       </c>
       <c r="D884" s="14" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="E884" s="14" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="F884" s="14" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="885" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -22711,13 +22711,13 @@
         <v>372</v>
       </c>
       <c r="D885" s="14" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="E885" s="14" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="F885" s="14" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="886" spans="1:6" x14ac:dyDescent="0.3">
@@ -22726,13 +22726,13 @@
         <v>397</v>
       </c>
       <c r="D886" s="14" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="E886" s="14" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="F886" s="14" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="887" spans="1:6" x14ac:dyDescent="0.3">
@@ -22741,13 +22741,13 @@
         <v>400</v>
       </c>
       <c r="D887" s="14" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="E887" s="14" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="F887" s="14" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
     </row>
     <row r="888" spans="1:6" x14ac:dyDescent="0.3">
@@ -22758,13 +22758,13 @@
         <v>425</v>
       </c>
       <c r="D888" s="14" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="E888" s="14" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="F888" s="14" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
     </row>
     <row r="889" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -22773,13 +22773,13 @@
         <v>435</v>
       </c>
       <c r="D889" s="14" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="E889" s="14" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="F889" s="14" t="s">
-        <v>2636</v>
+        <v>2635</v>
       </c>
     </row>
     <row r="890" spans="1:6" x14ac:dyDescent="0.3">
@@ -22788,13 +22788,13 @@
         <v>456</v>
       </c>
       <c r="D890" s="14" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="E890" s="14" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
       <c r="F890" s="14" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="891" spans="1:6" x14ac:dyDescent="0.3">
@@ -22803,30 +22803,30 @@
         <v>461</v>
       </c>
       <c r="D891" s="14" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="E891" s="14" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="F891" s="14" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="892" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A892" s="16" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="C892" s="13">
         <v>470</v>
       </c>
       <c r="D892" s="14" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="E892" s="14" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="F892" s="14" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="893" spans="1:6" x14ac:dyDescent="0.3">
@@ -22835,13 +22835,13 @@
         <v>480</v>
       </c>
       <c r="D893" s="14" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="E893" s="14" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="F893" s="14" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="894" spans="1:6" x14ac:dyDescent="0.3">
@@ -22850,13 +22850,13 @@
         <v>483</v>
       </c>
       <c r="D894" s="14" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="E894" s="14" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="F894" s="14" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="895" spans="1:6" x14ac:dyDescent="0.3">
@@ -22867,13 +22867,13 @@
         <v>519</v>
       </c>
       <c r="D895" s="14" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="E895" s="14" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
       <c r="F895" s="14" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="896" spans="1:6" x14ac:dyDescent="0.3">
@@ -22882,13 +22882,13 @@
         <v>638</v>
       </c>
       <c r="D896" s="14" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="E896" s="14" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="F896" s="14" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
     </row>
     <row r="897" spans="1:6" x14ac:dyDescent="0.3">
@@ -22897,13 +22897,13 @@
         <v>644</v>
       </c>
       <c r="D897" s="14" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="E897" s="14" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
       <c r="F897" s="14" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="898" spans="1:6" x14ac:dyDescent="0.3">
@@ -22914,30 +22914,30 @@
         <v>690</v>
       </c>
       <c r="D898" s="14" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="E898" s="14" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="F898" s="14" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="899" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A899" s="16" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="C899" s="13">
         <v>842</v>
       </c>
       <c r="D899" s="14" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="E899" s="14" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="F899" s="14" t="s">
-        <v>2646</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="900" spans="1:6" x14ac:dyDescent="0.3">
@@ -22946,13 +22946,13 @@
         <v>848</v>
       </c>
       <c r="D900" s="14" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="E900" s="14" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="F900" s="14" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="901" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -22963,13 +22963,13 @@
         <v>856</v>
       </c>
       <c r="D901" s="14" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="E901" s="14" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="F901" s="14" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="902" spans="1:6" x14ac:dyDescent="0.3">
@@ -22978,13 +22978,13 @@
         <v>876</v>
       </c>
       <c r="D902" s="14" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="E902" s="14" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="F902" s="14" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="903" spans="1:6" x14ac:dyDescent="0.3">
@@ -22995,13 +22995,13 @@
         <v>919</v>
       </c>
       <c r="D903" s="14" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="E903" s="14" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="F903" s="14" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="904" spans="1:6" x14ac:dyDescent="0.3">
@@ -23010,13 +23010,13 @@
         <v>925</v>
       </c>
       <c r="D904" s="14" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="E904" s="14" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="F904" s="14" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="905" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -23027,13 +23027,13 @@
         <v>931</v>
       </c>
       <c r="D905" s="14" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="E905" s="14" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="F905" s="14" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="906" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -23042,13 +23042,13 @@
         <v>934</v>
       </c>
       <c r="D906" s="14" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="E906" s="14" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="F906" s="14" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="907" spans="1:6" x14ac:dyDescent="0.3">
@@ -23057,13 +23057,13 @@
         <v>937</v>
       </c>
       <c r="D907" s="14" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="E907" s="14" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
       <c r="F907" s="14" t="s">
-        <v>2654</v>
+        <v>2653</v>
       </c>
     </row>
     <row r="908" spans="1:6" x14ac:dyDescent="0.3">
@@ -23072,13 +23072,13 @@
         <v>943</v>
       </c>
       <c r="D908" s="14" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="E908" s="14" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="F908" s="14" t="s">
-        <v>2655</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="909" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -23087,13 +23087,13 @@
         <v>946</v>
       </c>
       <c r="D909" s="14" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="E909" s="14" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
       <c r="F909" s="14" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="910" spans="1:6" x14ac:dyDescent="0.3">
@@ -23104,30 +23104,30 @@
         <v>955</v>
       </c>
       <c r="D910" s="14" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="E910" s="14" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="F910" s="14" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="911" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A911" s="16" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="C911" s="13">
         <v>961</v>
       </c>
       <c r="D911" s="14" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="E911" s="14" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="F911" s="14" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="912" spans="1:6" x14ac:dyDescent="0.3">
@@ -23138,13 +23138,13 @@
         <v>966</v>
       </c>
       <c r="D912" s="14" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="E912" s="14" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="F912" s="14" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="913" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -23153,30 +23153,30 @@
         <v>969</v>
       </c>
       <c r="D913" s="14" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="E913" s="14" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="F913" s="14" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
     </row>
     <row r="914" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A914" s="16" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="C914" s="13">
         <v>975</v>
       </c>
       <c r="D914" s="14" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="E914" s="14" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="F914" s="14" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="915" spans="1:6" x14ac:dyDescent="0.3">
@@ -23187,13 +23187,13 @@
         <v>1035</v>
       </c>
       <c r="D915" s="14" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="E915" s="14" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="F915" s="14" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="916" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -23202,13 +23202,13 @@
         <v>1038</v>
       </c>
       <c r="D916" s="14" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="E916" s="14" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="F916" s="14" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="917" spans="1:6" x14ac:dyDescent="0.3">
@@ -23217,13 +23217,13 @@
         <v>1041</v>
       </c>
       <c r="D917" s="14" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="E917" s="14" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="F917" s="14" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
     </row>
     <row r="918" spans="1:6" x14ac:dyDescent="0.3">
@@ -23232,13 +23232,13 @@
         <v>1050</v>
       </c>
       <c r="D918" s="14" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="E918" s="14" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="F918" s="14" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
     </row>
     <row r="919" spans="1:6" x14ac:dyDescent="0.3">
@@ -23249,13 +23249,13 @@
         <v>1056</v>
       </c>
       <c r="D919" s="14" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="E919" s="14" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="F919" s="14" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
     </row>
     <row r="920" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -23264,13 +23264,13 @@
         <v>1059</v>
       </c>
       <c r="D920" s="14" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="E920" s="14" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="F920" s="14" t="s">
-        <v>2667</v>
+        <v>2666</v>
       </c>
     </row>
     <row r="921" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -23279,13 +23279,13 @@
         <v>1062</v>
       </c>
       <c r="D921" s="14" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="E921" s="14" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
       <c r="F921" s="14" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="922" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -23294,13 +23294,13 @@
         <v>1065</v>
       </c>
       <c r="D922" s="14" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="E922" s="14" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="F922" s="14" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
     </row>
     <row r="923" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -23309,13 +23309,13 @@
         <v>1068</v>
       </c>
       <c r="D923" s="14" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="E923" s="14" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="F923" s="14" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
     </row>
     <row r="924" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -23324,13 +23324,13 @@
         <v>1071</v>
       </c>
       <c r="D924" s="14" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="E924" s="14" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="F924" s="14" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
     </row>
     <row r="925" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -23339,13 +23339,13 @@
         <v>1074</v>
       </c>
       <c r="D925" s="14" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="E925" s="14" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="F925" s="14" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="926" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -23354,13 +23354,13 @@
         <v>1077</v>
       </c>
       <c r="D926" s="14" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="E926" s="14" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="F926" s="14" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="927" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -23369,13 +23369,13 @@
         <v>1080</v>
       </c>
       <c r="D927" s="14" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="E927" s="14" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="F927" s="14" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
     </row>
     <row r="928" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -23384,13 +23384,13 @@
         <v>1083</v>
       </c>
       <c r="D928" s="14" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="E928" s="14" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="F928" s="14" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
     </row>
     <row r="929" spans="1:6" x14ac:dyDescent="0.3">
@@ -23399,13 +23399,13 @@
         <v>1088</v>
       </c>
       <c r="D929" s="14" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="E929" s="14" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="F929" s="14" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="930" spans="1:6" x14ac:dyDescent="0.3">
@@ -23416,13 +23416,13 @@
         <v>1094</v>
       </c>
       <c r="D930" s="14" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="E930" s="14" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
       <c r="F930" s="14" t="s">
-        <v>2676</v>
+        <v>2675</v>
       </c>
     </row>
     <row r="931" spans="1:6" x14ac:dyDescent="0.3">
@@ -23431,13 +23431,13 @@
         <v>1097</v>
       </c>
       <c r="D931" s="14" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="E931" s="14" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
       <c r="F931" s="14" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="932" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -23446,13 +23446,13 @@
         <v>1100</v>
       </c>
       <c r="D932" s="14" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="E932" s="14" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
       <c r="F932" s="14" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="933" spans="1:6" x14ac:dyDescent="0.3">
@@ -23461,7 +23461,7 @@
         <v>1109</v>
       </c>
       <c r="D933" s="14" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="E933" s="14" t="s">
         <v>76</v>
@@ -23476,13 +23476,13 @@
         <v>1113</v>
       </c>
       <c r="D934" s="14" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="E934" s="14" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
       <c r="F934" s="14" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
     </row>
     <row r="935" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -23491,13 +23491,13 @@
         <v>1116</v>
       </c>
       <c r="D935" s="14" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="E935" s="14" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
       <c r="F935" s="14" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
     </row>
     <row r="936" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -23506,13 +23506,13 @@
         <v>1137</v>
       </c>
       <c r="D936" s="14" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="E936" s="14" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
       <c r="F936" s="14" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="937" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -23523,13 +23523,13 @@
         <v>1143</v>
       </c>
       <c r="D937" s="14" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="E937" s="14" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="F937" s="14" t="s">
-        <v>2682</v>
+        <v>2681</v>
       </c>
     </row>
     <row r="938" spans="1:6" x14ac:dyDescent="0.3">
@@ -23555,13 +23555,13 @@
         <v>1164</v>
       </c>
       <c r="D939" s="14" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="E939" s="14" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="F939" s="14" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
     </row>
     <row r="940" spans="1:6" x14ac:dyDescent="0.3">
@@ -23570,13 +23570,13 @@
         <v>1167</v>
       </c>
       <c r="D940" s="14" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="E940" s="14" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="F940" s="14" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="941" spans="1:6" x14ac:dyDescent="0.3">
@@ -23585,13 +23585,13 @@
         <v>1170</v>
       </c>
       <c r="D941" s="14" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="E941" s="14" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="F941" s="14" t="s">
-        <v>2685</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="942" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -23600,13 +23600,13 @@
         <v>1173</v>
       </c>
       <c r="D942" s="14" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="E942" s="14" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
       <c r="F942" s="14" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
     </row>
     <row r="943" spans="1:6" x14ac:dyDescent="0.3">
@@ -23615,30 +23615,30 @@
         <v>1178</v>
       </c>
       <c r="D943" s="14" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="E943" s="14" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="F943" s="14" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="944" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A944" s="16" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="C944" s="13">
         <v>1188</v>
       </c>
       <c r="D944" s="14" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="E944" s="14" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="F944" s="14" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="945" spans="1:6" x14ac:dyDescent="0.3">
@@ -23647,13 +23647,13 @@
         <v>1215</v>
       </c>
       <c r="D945" s="14" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="E945" s="14" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
       <c r="F945" s="14" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="946" spans="1:6" x14ac:dyDescent="0.3">
@@ -23664,13 +23664,13 @@
         <v>1225</v>
       </c>
       <c r="D946" s="14" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="E946" s="14" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="F946" s="14" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="947" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -23679,13 +23679,13 @@
         <v>1228</v>
       </c>
       <c r="D947" s="14" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="E947" s="14" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
       <c r="F947" s="14" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
     </row>
     <row r="948" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -23694,13 +23694,13 @@
         <v>1231</v>
       </c>
       <c r="D948" s="14" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="E948" s="14" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
       <c r="F948" s="14" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="949" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -23709,13 +23709,13 @@
         <v>1234</v>
       </c>
       <c r="D949" s="14" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="E949" s="14" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="F949" s="14" t="s">
-        <v>2692</v>
+        <v>2691</v>
       </c>
     </row>
     <row r="950" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -23724,13 +23724,13 @@
         <v>1237</v>
       </c>
       <c r="D950" s="14" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="E950" s="14" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="F950" s="14" t="s">
-        <v>2693</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="951" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -23739,13 +23739,13 @@
         <v>1240</v>
       </c>
       <c r="D951" s="14" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="E951" s="14" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="F951" s="14" t="s">
-        <v>2694</v>
+        <v>2693</v>
       </c>
     </row>
     <row r="952" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -23754,13 +23754,13 @@
         <v>1243</v>
       </c>
       <c r="D952" s="14" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="E952" s="14" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="F952" s="14" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="953" spans="1:6" x14ac:dyDescent="0.3">
@@ -23769,13 +23769,13 @@
         <v>1246</v>
       </c>
       <c r="D953" s="14" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="E953" s="14" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="F953" s="14" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="954" spans="1:6" x14ac:dyDescent="0.3">
@@ -23784,13 +23784,13 @@
         <v>1255</v>
       </c>
       <c r="D954" s="14" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="E954" s="14" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="F954" s="14" t="s">
-        <v>2697</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="955" spans="1:6" x14ac:dyDescent="0.3">
@@ -23799,13 +23799,13 @@
         <v>1258</v>
       </c>
       <c r="D955" s="14" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="E955" s="14" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="F955" s="14" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="956" spans="1:6" x14ac:dyDescent="0.3">
@@ -23816,13 +23816,13 @@
         <v>1264</v>
       </c>
       <c r="D956" s="14" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="E956" s="14" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="F956" s="14" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="957" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -23831,13 +23831,13 @@
         <v>1267</v>
       </c>
       <c r="D957" s="14" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="E957" s="14" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="F957" s="14" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
     </row>
     <row r="958" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -23846,13 +23846,13 @@
         <v>1270</v>
       </c>
       <c r="D958" s="14" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="E958" s="14" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="F958" s="14" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="959" spans="1:6" x14ac:dyDescent="0.3">
@@ -23861,13 +23861,13 @@
         <v>1273</v>
       </c>
       <c r="D959" s="14" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="E959" s="14" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="F959" s="14" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
     </row>
     <row r="960" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -23876,13 +23876,13 @@
         <v>1276</v>
       </c>
       <c r="D960" s="14" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="E960" s="14" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="F960" s="14" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="961" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -23891,13 +23891,13 @@
         <v>1279</v>
       </c>
       <c r="D961" s="14" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="E961" s="14" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
       <c r="F961" s="14" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
     </row>
     <row r="962" spans="1:6" x14ac:dyDescent="0.3">
@@ -23906,13 +23906,13 @@
         <v>1284</v>
       </c>
       <c r="D962" s="14" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="E962" s="14" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
       <c r="F962" s="14" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
     </row>
     <row r="963" spans="1:6" x14ac:dyDescent="0.3">
@@ -23923,13 +23923,13 @@
         <v>1293</v>
       </c>
       <c r="D963" s="14" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="E963" s="14" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
       <c r="F963" s="14" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="964" spans="1:6" x14ac:dyDescent="0.3">
@@ -23938,13 +23938,13 @@
         <v>1447</v>
       </c>
       <c r="D964" s="14" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="E964" s="14" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="F964" s="14" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
     </row>
     <row r="965" spans="1:6" x14ac:dyDescent="0.3">
@@ -23955,13 +23955,13 @@
         <v>1489</v>
       </c>
       <c r="D965" s="14" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="E965" s="14" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="F965" s="14" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
     </row>
     <row r="966" spans="1:6" x14ac:dyDescent="0.3">
@@ -23970,13 +23970,13 @@
         <v>1524</v>
       </c>
       <c r="D966" s="14" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="E966" s="14" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="F966" s="14" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
     </row>
     <row r="967" spans="1:6" x14ac:dyDescent="0.3">
@@ -23985,13 +23985,13 @@
         <v>1612</v>
       </c>
       <c r="D967" s="14" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="E967" s="14" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
       <c r="F967" s="14" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
     </row>
     <row r="968" spans="1:6" x14ac:dyDescent="0.3">
@@ -24000,13 +24000,13 @@
         <v>1624</v>
       </c>
       <c r="D968" s="14" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="E968" s="14" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
       <c r="F968" s="14" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="969" spans="1:6" x14ac:dyDescent="0.3">
@@ -24015,13 +24015,13 @@
         <v>1700</v>
       </c>
       <c r="D969" s="14" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="E969" s="14" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
       <c r="F969" s="14" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="970" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -24030,13 +24030,13 @@
         <v>1703</v>
       </c>
       <c r="D970" s="14" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="E970" s="14" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
       <c r="F970" s="14" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
     </row>
     <row r="971" spans="1:6" x14ac:dyDescent="0.3">
@@ -24046,21 +24046,21 @@
         <v>1706</v>
       </c>
       <c r="D971" s="29" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="E971" s="29" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
       <c r="F971" s="29" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
     </row>
     <row r="972" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A972" s="24" t="s">
+        <v>2716</v>
+      </c>
+      <c r="B972" s="25" t="s">
         <v>2717</v>
-      </c>
-      <c r="B972" s="25" t="s">
-        <v>2718</v>
       </c>
       <c r="C972" s="25"/>
       <c r="D972" s="26"/>
@@ -24075,13 +24075,13 @@
         <v>17</v>
       </c>
       <c r="D973" s="14" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
       <c r="E973" s="14" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="F973" s="14" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="974" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -24090,13 +24090,13 @@
         <v>20</v>
       </c>
       <c r="D974" s="14" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
       <c r="E974" s="14" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
       <c r="F974" s="14" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
     </row>
     <row r="975" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -24105,13 +24105,13 @@
         <v>25</v>
       </c>
       <c r="D975" s="14" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
       <c r="E975" s="14" t="s">
-        <v>2737</v>
+        <v>2736</v>
       </c>
       <c r="F975" s="14" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="976" spans="1:6" x14ac:dyDescent="0.3">
@@ -24122,13 +24122,13 @@
         <v>30</v>
       </c>
       <c r="D976" s="14" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
       <c r="E976" s="14" t="s">
-        <v>2738</v>
+        <v>2737</v>
       </c>
       <c r="F976" s="14" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="977" spans="1:6" x14ac:dyDescent="0.3">
@@ -24137,13 +24137,13 @@
         <v>33</v>
       </c>
       <c r="D977" s="14" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="E977" s="14" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
       <c r="F977" s="14" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="978" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -24152,13 +24152,13 @@
         <v>38</v>
       </c>
       <c r="D978" s="14" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
       <c r="E978" s="14" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
       <c r="F978" s="14" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
     </row>
     <row r="979" spans="1:6" x14ac:dyDescent="0.3">
@@ -24167,13 +24167,13 @@
         <v>41</v>
       </c>
       <c r="D979" s="14" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
       <c r="E979" s="14" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
       <c r="F979" s="14" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
     </row>
     <row r="980" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -24182,13 +24182,13 @@
         <v>44</v>
       </c>
       <c r="D980" s="14" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="E980" s="14" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
       <c r="F980" s="14" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
     </row>
     <row r="981" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -24197,13 +24197,13 @@
         <v>69</v>
       </c>
       <c r="D981" s="14" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
       <c r="E981" s="14" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
       <c r="F981" s="14" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
     </row>
     <row r="982" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -24212,13 +24212,13 @@
         <v>72</v>
       </c>
       <c r="D982" s="14" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="E982" s="14" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
       <c r="F982" s="14" t="s">
-        <v>2760</v>
+        <v>2759</v>
       </c>
     </row>
     <row r="983" spans="1:6" x14ac:dyDescent="0.3">
@@ -24227,13 +24227,13 @@
         <v>75</v>
       </c>
       <c r="D983" s="14" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="E983" s="14" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
       <c r="F983" s="14" t="s">
-        <v>2761</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="984" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -24242,13 +24242,13 @@
         <v>82</v>
       </c>
       <c r="D984" s="14" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
       <c r="E984" s="14" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
       <c r="F984" s="14" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="985" spans="1:6" x14ac:dyDescent="0.3">
@@ -24257,13 +24257,13 @@
         <v>85</v>
       </c>
       <c r="D985" s="14" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
       <c r="E985" s="14" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
       <c r="F985" s="14" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
     </row>
     <row r="986" spans="1:6" x14ac:dyDescent="0.3">
@@ -24272,13 +24272,13 @@
         <v>88</v>
       </c>
       <c r="D986" s="14" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
       <c r="E986" s="14" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="F986" s="14" t="s">
-        <v>2764</v>
+        <v>2763</v>
       </c>
     </row>
     <row r="987" spans="1:6" x14ac:dyDescent="0.3">
@@ -24287,13 +24287,13 @@
         <v>91</v>
       </c>
       <c r="D987" s="14" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
       <c r="E987" s="14" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
       <c r="F987" s="14" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
     </row>
     <row r="988" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -24302,13 +24302,13 @@
         <v>94</v>
       </c>
       <c r="D988" s="14" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="E988" s="14" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
       <c r="F988" s="14" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
     </row>
   </sheetData>
